--- a/DICCExportTrade/Data/Config.xlsx
+++ b/DICCExportTrade/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DICCExportTrade\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C089CF9-CCF2-4267-AB65-70764E5EAA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3508DE-743D-4EF6-B495-FB3C2893567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,22 @@
   </si>
   <si>
     <t>icCard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradeCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownLoadPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\RPA\Download</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +561,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -620,9 +636,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>3706249871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>85299999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1624,7 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2837,7 +2876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
